--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90B3BD9-4C4B-4898-AEEC-C6E9892CA871}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3AB2E6-BE00-42AE-BAEA-88B6A9BDDC45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>字节跳动实习岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈喽出行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="E8 E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -480,6 +484,14 @@
         <v>44213</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44216</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3AB2E6-BE00-42AE-BAEA-88B6A9BDDC45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C009AD7-D56C-473A-85FA-FC84A834BBF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>哈喽出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生电子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -492,6 +496,14 @@
         <v>44216</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44218</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C009AD7-D56C-473A-85FA-FC84A834BBF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BDB5A4-992F-45D0-9CB7-DC664D591750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,26 @@
   </si>
   <si>
     <t>恒生电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=380b5be82af0b963b605edb94afe3e44d66ef8c0da8ffc9f1fa1b19c6488af4586227bdae58a65dabd424c4b9c0139b5d94fcd9eda3f39ac2f4af995f25df09b9d73f471d196a29b3bce9b6149330305bd32cd9a5934dc1c27686a0a1f285b583235030e47a20b49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/resume/delivery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +104,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -111,12 +140,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,9 +161,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -454,11 +493,12 @@
     <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,8 +508,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -480,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -488,7 +531,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -496,7 +539,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -504,8 +547,34 @@
         <v>44218</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44229</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44229</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=380b5be82af0b963b605edb94afe3e44d66ef8c0da8ffc9f1fa1b19c6488af4586227bdae58a65dabd424c4b9c0139b5d94fcd9eda3f39ac2f4af995f25df09b9d73f471d196a29b3bce9b6149330305bd32cd9a5934dc1c27686a0a1f285b583235030e47a20b49" xr:uid="{D6BC086C-DB0A-442C-8484-6597EF9534B0}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{A7FC0C34-867E-41B2-82FC-B4547C17E780}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BDB5A4-992F-45D0-9CB7-DC664D591750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7588D96B-7342-4AB2-B8C9-1409B7B78CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>https://xiaoyuan.zhaopin.com/resume/delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.hundsun.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.jd.com/web/apply/myjob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -541,39 +553,55 @@
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>44218</v>
+        <v>44229</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>44229</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>44229</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44230</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=380b5be82af0b963b605edb94afe3e44d66ef8c0da8ffc9f1fa1b19c6488af4586227bdae58a65dabd424c4b9c0139b5d94fcd9eda3f39ac2f4af995f25df09b9d73f471d196a29b3bce9b6149330305bd32cd9a5934dc1c27686a0a1f285b583235030e47a20b49" xr:uid="{D6BC086C-DB0A-442C-8484-6597EF9534B0}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{A7FC0C34-867E-41B2-82FC-B4547C17E780}"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=380b5be82af0b963b605edb94afe3e44d66ef8c0da8ffc9f1fa1b19c6488af4586227bdae58a65dabd424c4b9c0139b5d94fcd9eda3f39ac2f4af995f25df09b9d73f471d196a29b3bce9b6149330305bd32cd9a5934dc1c27686a0a1f285b583235030e47a20b49" xr:uid="{D6BC086C-DB0A-442C-8484-6597EF9534B0}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{A7FC0C34-867E-41B2-82FC-B4547C17E780}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{51CE1D5B-06F4-4646-8352-E225137EAA4B}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{A281FD35-50B4-4F87-9A85-37A69D12B5FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7588D96B-7342-4AB2-B8C9-1409B7B78CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D754BFB-5CE7-453E-899C-ADF461226582}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>http://campus.jd.com/web/apply/myjob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/personal/apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +501,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -542,6 +546,9 @@
       <c r="B3" s="2">
         <v>44213</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -602,6 +609,7 @@
     <hyperlink ref="D6" r:id="rId2" xr:uid="{A7FC0C34-867E-41B2-82FC-B4547C17E780}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{51CE1D5B-06F4-4646-8352-E225137EAA4B}"/>
     <hyperlink ref="D8" r:id="rId4" xr:uid="{A281FD35-50B4-4F87-9A85-37A69D12B5FB}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{5C96C833-5502-45B8-86A3-EA3127B78288}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D754BFB-5CE7-453E-899C-ADF461226582}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA100D-5DCC-47BB-BAA7-F6E7E39ECDCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,46 @@
   </si>
   <si>
     <t>https://campus.163.com/app/personal/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前的投过了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.alibaba.com/personal/campus-application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.huawei.com/reccampportal/portal5/job-progress.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://join.qq.com/center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +172,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -164,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -602,7 +653,68 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44231</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44232</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44232</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44232</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44232</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition ref="B1:B10"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=380b5be82af0b963b605edb94afe3e44d66ef8c0da8ffc9f1fa1b19c6488af4586227bdae58a65dabd424c4b9c0139b5d94fcd9eda3f39ac2f4af995f25df09b9d73f471d196a29b3bce9b6149330305bd32cd9a5934dc1c27686a0a1f285b583235030e47a20b49" xr:uid="{D6BC086C-DB0A-442C-8484-6597EF9534B0}"/>
@@ -610,6 +722,9 @@
     <hyperlink ref="D7" r:id="rId3" xr:uid="{51CE1D5B-06F4-4646-8352-E225137EAA4B}"/>
     <hyperlink ref="D8" r:id="rId4" xr:uid="{A281FD35-50B4-4F87-9A85-37A69D12B5FB}"/>
     <hyperlink ref="D3" r:id="rId5" xr:uid="{5C96C833-5502-45B8-86A3-EA3127B78288}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{DC447125-78C5-49A9-B145-B50162C7A1C8}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{D95568E3-DA43-438B-86E8-36AC59775733}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{369CC374-F133-4E21-8626-98AC6F8DDA60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA100D-5DCC-47BB-BAA7-F6E7E39ECDCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD888E87-1C0D-4D94-A65C-3004E12E77E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
+    <workbookView xWindow="840" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>中通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iotchinamobile.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端肉投递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -708,7 +720,18 @@
         <v>44232</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44234</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -725,6 +748,7 @@
     <hyperlink ref="D10" r:id="rId6" xr:uid="{DC447125-78C5-49A9-B145-B50162C7A1C8}"/>
     <hyperlink ref="D11" r:id="rId7" xr:uid="{D95568E3-DA43-438B-86E8-36AC59775733}"/>
     <hyperlink ref="D12" r:id="rId8" xr:uid="{369CC374-F133-4E21-8626-98AC6F8DDA60}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{E6CBB73D-D38C-4530-B1B3-207BA2409D3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD888E87-1C0D-4D94-A65C-3004E12E77E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB159B6A-F707-4118-AABA-B407128F6366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,7 +143,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机端肉投递</t>
+    <t>手机端投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.sf-express.com/#/personalCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐明技术</t>
+  </si>
+  <si>
+    <t>https://streamax.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/myDelivery.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.duxiaoman.com/campus_apply/duxiaoman/1482#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>度小满</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -620,6 +654,9 @@
       <c r="B4" s="2">
         <v>44216</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -732,6 +769,50 @@
       </c>
       <c r="D14" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44235</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44235</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44235</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44235</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -749,6 +830,9 @@
     <hyperlink ref="D11" r:id="rId7" xr:uid="{D95568E3-DA43-438B-86E8-36AC59775733}"/>
     <hyperlink ref="D12" r:id="rId8" xr:uid="{369CC374-F133-4E21-8626-98AC6F8DDA60}"/>
     <hyperlink ref="D14" r:id="rId9" xr:uid="{E6CBB73D-D38C-4530-B1B3-207BA2409D3F}"/>
+    <hyperlink ref="D15" r:id="rId10" location="/personalCenter" xr:uid="{12AEBD69-84F9-4F6A-B2D6-5175D346BD95}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{5579ECA1-4F68-4093-8D30-F93B028FA3C9}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{B64DB0FA-CFF4-40E9-89AB-4EC3A57F1E6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB159B6A-F707-4118-AABA-B407128F6366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3482B0-951F-4E19-9F01-592FE6F0C374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,13 @@
   </si>
   <si>
     <t>度小满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hotjob.cn/wt/niocampus/web/index#/pc</t>
+  </si>
+  <si>
+    <t>蔚来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -813,6 +820,17 @@
       </c>
       <c r="D18" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44236</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3482B0-951F-4E19-9F01-592FE6F0C374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595ED864-520B-4573-A787-CC947105D0DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,17 +174,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>度小满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮消费金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.liepin.com/xycompany/vip2020-v2/175819/yingjie.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hotjob.cn/wt/niocampus/web/index#/pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://campus.duxiaoman.com/campus_apply/duxiaoman/1482#/candidateHome/applications</t>
-  </si>
-  <si>
-    <t>度小满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hotjob.cn/wt/niocampus/web/index#/pc</t>
-  </si>
-  <si>
-    <t>蔚来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ctrip.zhiye.com/Portal/Apply/Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -813,24 +835,57 @@
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>44235</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>44236</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44237</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44237</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44241</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -851,6 +906,10 @@
     <hyperlink ref="D15" r:id="rId10" location="/personalCenter" xr:uid="{12AEBD69-84F9-4F6A-B2D6-5175D346BD95}"/>
     <hyperlink ref="D16" r:id="rId11" xr:uid="{5579ECA1-4F68-4093-8D30-F93B028FA3C9}"/>
     <hyperlink ref="D17" r:id="rId12" xr:uid="{B64DB0FA-CFF4-40E9-89AB-4EC3A57F1E6B}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{9D0A56B8-CEA1-4C48-B62E-6195AB564122}"/>
+    <hyperlink ref="D19" r:id="rId14" location="/pc" xr:uid="{27503972-A5CD-4C9A-87A9-B1909ADA9029}"/>
+    <hyperlink ref="D18" r:id="rId15" location="/candidateHome/applications" xr:uid="{81F9C059-D61D-41AF-A321-505B9E4215F3}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{5B28EBA0-C6CC-49C8-813A-9014BD4F9E06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595ED864-520B-4573-A787-CC947105D0DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40620898-DC94-4A51-A971-A09818C87C68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,32 @@
   <si>
     <t>https://ctrip.zhiye.com/Portal/Apply/Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momenta</t>
+  </si>
+  <si>
+    <t>测评忘做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟谁学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客招聘助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇安信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝特价版</t>
   </si>
 </sst>
 </file>
@@ -624,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -689,227 +715,285 @@
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
-        <v>44229</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>44226</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>44229</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>44229</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>44231</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>44230</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>44232</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>44231</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>44232</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>44232</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>44232</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>44234</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
+        <v>44232</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
         <v>44235</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>44235</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>44235</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
-        <v>44237</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>44236</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>44237</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>41</v>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44237</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>44241</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44249</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44250</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44250</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44250</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
-    <sortCondition ref="B1:B10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
+    <sortCondition ref="B1:B24"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=380b5be82af0b963b605edb94afe3e44d66ef8c0da8ffc9f1fa1b19c6488af4586227bdae58a65dabd424c4b9c0139b5d94fcd9eda3f39ac2f4af995f25df09b9d73f471d196a29b3bce9b6149330305bd32cd9a5934dc1c27686a0a1f285b583235030e47a20b49" xr:uid="{D6BC086C-DB0A-442C-8484-6597EF9534B0}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{A7FC0C34-867E-41B2-82FC-B4547C17E780}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{51CE1D5B-06F4-4646-8352-E225137EAA4B}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{A281FD35-50B4-4F87-9A85-37A69D12B5FB}"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=380b5be82af0b963b605edb94afe3e44d66ef8c0da8ffc9f1fa1b19c6488af4586227bdae58a65dabd424c4b9c0139b5d94fcd9eda3f39ac2f4af995f25df09b9d73f471d196a29b3bce9b6149330305bd32cd9a5934dc1c27686a0a1f285b583235030e47a20b49" xr:uid="{D6BC086C-DB0A-442C-8484-6597EF9534B0}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{A7FC0C34-867E-41B2-82FC-B4547C17E780}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{51CE1D5B-06F4-4646-8352-E225137EAA4B}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{A281FD35-50B4-4F87-9A85-37A69D12B5FB}"/>
     <hyperlink ref="D3" r:id="rId5" xr:uid="{5C96C833-5502-45B8-86A3-EA3127B78288}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{DC447125-78C5-49A9-B145-B50162C7A1C8}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{D95568E3-DA43-438B-86E8-36AC59775733}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{369CC374-F133-4E21-8626-98AC6F8DDA60}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{E6CBB73D-D38C-4530-B1B3-207BA2409D3F}"/>
-    <hyperlink ref="D15" r:id="rId10" location="/personalCenter" xr:uid="{12AEBD69-84F9-4F6A-B2D6-5175D346BD95}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{5579ECA1-4F68-4093-8D30-F93B028FA3C9}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{B64DB0FA-CFF4-40E9-89AB-4EC3A57F1E6B}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{9D0A56B8-CEA1-4C48-B62E-6195AB564122}"/>
-    <hyperlink ref="D19" r:id="rId14" location="/pc" xr:uid="{27503972-A5CD-4C9A-87A9-B1909ADA9029}"/>
-    <hyperlink ref="D18" r:id="rId15" location="/candidateHome/applications" xr:uid="{81F9C059-D61D-41AF-A321-505B9E4215F3}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{5B28EBA0-C6CC-49C8-813A-9014BD4F9E06}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{DC447125-78C5-49A9-B145-B50162C7A1C8}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{D95568E3-DA43-438B-86E8-36AC59775733}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{369CC374-F133-4E21-8626-98AC6F8DDA60}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{E6CBB73D-D38C-4530-B1B3-207BA2409D3F}"/>
+    <hyperlink ref="D16" r:id="rId10" location="/personalCenter" xr:uid="{12AEBD69-84F9-4F6A-B2D6-5175D346BD95}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{5579ECA1-4F68-4093-8D30-F93B028FA3C9}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{B64DB0FA-CFF4-40E9-89AB-4EC3A57F1E6B}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{9D0A56B8-CEA1-4C48-B62E-6195AB564122}"/>
+    <hyperlink ref="D20" r:id="rId14" location="/pc" xr:uid="{27503972-A5CD-4C9A-87A9-B1909ADA9029}"/>
+    <hyperlink ref="D19" r:id="rId15" location="/candidateHome/applications" xr:uid="{81F9C059-D61D-41AF-A321-505B9E4215F3}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{5B28EBA0-C6CC-49C8-813A-9014BD4F9E06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40620898-DC94-4A51-A971-A09818C87C68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD054F31-8B05-4980-A5C1-9A87CA0FB942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD054F31-8B05-4980-A5C1-9A87CA0FB942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260AC6D-E421-4354-A8FF-24CDBF44C863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,13 +234,33 @@
   </si>
   <si>
     <t>淘宝特价版</t>
+  </si>
+  <si>
+    <t>刷面经数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创梦天地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://idreamsky.jobs.feishu.cn/campus/position/application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +301,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF494F50"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +319,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +372,15 @@
       <alignment horizontal="fill" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -666,7 +714,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,8 +727,11 @@
       <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -691,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,7 +753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -713,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -724,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -735,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -746,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -757,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -768,7 +819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -779,21 +830,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>44232</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -804,7 +855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -815,7 +866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -826,7 +877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -837,7 +888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -888,6 +939,9 @@
       <c r="B20" s="2">
         <v>44236</v>
       </c>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
@@ -921,7 +975,7 @@
       <c r="B23" s="2">
         <v>44241</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -968,8 +1022,22 @@
       <c r="B27" s="2">
         <v>44250</v>
       </c>
+      <c r="C27" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44251</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -994,6 +1062,7 @@
     <hyperlink ref="D20" r:id="rId14" location="/pc" xr:uid="{27503972-A5CD-4C9A-87A9-B1909ADA9029}"/>
     <hyperlink ref="D19" r:id="rId15" location="/candidateHome/applications" xr:uid="{81F9C059-D61D-41AF-A321-505B9E4215F3}"/>
     <hyperlink ref="D23" r:id="rId16" xr:uid="{5B28EBA0-C6CC-49C8-813A-9014BD4F9E06}"/>
+    <hyperlink ref="D28" r:id="rId17" xr:uid="{84AC07C9-FC95-47D8-9E99-061253BA6B2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260AC6D-E421-4354-A8FF-24CDBF44C863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA37830-175C-4368-B652-ECCA523F6E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <t>淘宝特价版</t>
   </si>
   <si>
-    <t>刷面经数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创梦天地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,7 +248,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笔试完</t>
+    <t>https://hr.4399om.com/main/?r=userCenter/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/2/27号笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/2/25笔试完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -710,11 +714,11 @@
     <col min="2" max="2" width="36.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -727,22 +731,22 @@
       <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>44204</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -764,7 +768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -775,7 +779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -786,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -797,7 +801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -819,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -830,7 +834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -844,7 +848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -855,7 +859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -866,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -877,7 +881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -888,7 +892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -940,7 +944,7 @@
         <v>44236</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>42</v>
@@ -1023,7 +1027,7 @@
         <v>44250</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
@@ -1031,13 +1035,27 @@
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2">
         <v>44251</v>
       </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>4399</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44251</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1063,6 +1081,7 @@
     <hyperlink ref="D19" r:id="rId15" location="/candidateHome/applications" xr:uid="{81F9C059-D61D-41AF-A321-505B9E4215F3}"/>
     <hyperlink ref="D23" r:id="rId16" xr:uid="{5B28EBA0-C6CC-49C8-813A-9014BD4F9E06}"/>
     <hyperlink ref="D28" r:id="rId17" xr:uid="{84AC07C9-FC95-47D8-9E99-061253BA6B2C}"/>
+    <hyperlink ref="D29" r:id="rId18" xr:uid="{0EA0397C-6514-4687-BC1E-05BAA7461164}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA37830-175C-4368-B652-ECCA523F6E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A98986-2D7D-45B2-A4FA-9FCF27022D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,10 +213,6 @@
     <t>Momenta</t>
   </si>
   <si>
-    <t>测评忘做了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跟谁学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +253,22 @@
   </si>
   <si>
     <t>2021/2/25笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山办公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌陌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -770,7 +782,7 @@
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2">
         <v>44226</v>
@@ -944,7 +956,7 @@
         <v>44236</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>42</v>
@@ -979,8 +991,8 @@
       <c r="B23" s="2">
         <v>44241</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
+      <c r="C23" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>45</v>
@@ -999,35 +1011,35 @@
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>44250</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2">
         <v>44250</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
         <v>44250</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
@@ -1035,16 +1047,16 @@
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
         <v>44251</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1055,7 +1067,40 @@
         <v>44251</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A98986-2D7D-45B2-A4FA-9FCF27022D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD522CC7-07D8-43FE-A5F0-372B01259F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,14 @@
   </si>
   <si>
     <t>陌陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.meituan.com/apply-record</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1101,6 +1109,17 @@
       </c>
       <c r="D32" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1127,6 +1146,7 @@
     <hyperlink ref="D23" r:id="rId16" xr:uid="{5B28EBA0-C6CC-49C8-813A-9014BD4F9E06}"/>
     <hyperlink ref="D28" r:id="rId17" xr:uid="{84AC07C9-FC95-47D8-9E99-061253BA6B2C}"/>
     <hyperlink ref="D29" r:id="rId18" xr:uid="{0EA0397C-6514-4687-BC1E-05BAA7461164}"/>
+    <hyperlink ref="D33" r:id="rId19" xr:uid="{C67141BB-14EE-4006-8B95-BD85F3545954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD522CC7-07D8-43FE-A5F0-372B01259F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E29A45-F5EB-40B9-8CFC-6B427A84099F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t>https://campus.meituan.com/apply-record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莉莉丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1120,6 +1124,17 @@
       </c>
       <c r="D33" s="5" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44257</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E29A45-F5EB-40B9-8CFC-6B427A84099F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7833FBA-9205-4A2B-8ADF-24576DE739F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,14 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/2/25笔试完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测评做了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜狐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +274,36 @@
   <si>
     <t>莉莉丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.25笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动春招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hand-china.zhiye.com/Portal/Apply/Index</t>
+  </si>
+  <si>
+    <t>3.4笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bytedance.com/campus/position/application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳找房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.ke.com/Portal/Apply/Index</t>
   </si>
 </sst>
 </file>
@@ -726,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -968,7 +990,7 @@
         <v>44236</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>42</v>
@@ -1004,7 +1026,7 @@
         <v>44241</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>45</v>
@@ -1084,7 +1106,7 @@
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2">
         <v>44256</v>
@@ -1095,7 +1117,7 @@
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2">
         <v>44256</v>
@@ -1106,7 +1128,7 @@
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2">
         <v>44256</v>
@@ -1117,24 +1139,57 @@
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2">
         <v>44256</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2">
         <v>44257</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44259</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44259</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44259</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1162,6 +1217,7 @@
     <hyperlink ref="D28" r:id="rId17" xr:uid="{84AC07C9-FC95-47D8-9E99-061253BA6B2C}"/>
     <hyperlink ref="D29" r:id="rId18" xr:uid="{0EA0397C-6514-4687-BC1E-05BAA7461164}"/>
     <hyperlink ref="D33" r:id="rId19" xr:uid="{C67141BB-14EE-4006-8B95-BD85F3545954}"/>
+    <hyperlink ref="D35" r:id="rId20" xr:uid="{FB12D36A-4A09-428C-B3C2-A6758CAF5C09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7833FBA-9205-4A2B-8ADF-24576DE739F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0BC5F6-2643-4991-984B-1DDF9B8B2FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/2/27号笔试完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜狐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +300,18 @@
   </si>
   <si>
     <t>http://campus.ke.com/Portal/Apply/Index</t>
+  </si>
+  <si>
+    <t>3.6笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.27号笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -750,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -990,7 +998,7 @@
         <v>44236</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>42</v>
@@ -1026,7 +1034,7 @@
         <v>44241</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>45</v>
@@ -1061,6 +1069,9 @@
       <c r="B26" s="2">
         <v>44250</v>
       </c>
+      <c r="C26" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>44251</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>53</v>
@@ -1106,7 +1117,7 @@
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2">
         <v>44256</v>
@@ -1117,7 +1128,7 @@
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2">
         <v>44256</v>
@@ -1128,7 +1139,7 @@
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2">
         <v>44256</v>
@@ -1139,18 +1150,18 @@
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2">
         <v>44256</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2">
         <v>44257</v>
@@ -1161,35 +1172,38 @@
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2">
         <v>44259</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2">
         <v>44259</v>
       </c>
+      <c r="C36" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2">
         <v>44259</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0BC5F6-2643-4991-984B-1DDF9B8B2FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32939175-580E-4D83-94F3-1668AA587BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一面二面，挂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简历未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://hr.4399om.com/main/?r=userCenter/index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.25笔试完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字节跳动春招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,33 +268,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3.4笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bytedance.com/campus/position/application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳找房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://hand-china.zhiye.com/Portal/Apply/Index</t>
-  </si>
-  <si>
-    <t>3.4笔试完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jobs.bytedance.com/campus/position/application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝壳找房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://campus.ke.com/Portal/Apply/Index</t>
-  </si>
-  <si>
-    <t>3.6笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.7笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.27号笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位已结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/xiaomi/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/didiglobal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.pinduoduo.com/campus/personal-center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6笔试完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF494F50"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -756,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -777,331 +807,343 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>44204</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>44213</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>44216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <v>44226</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>44229</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>44229</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>44229</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>44230</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>44231</v>
       </c>
+      <c r="C10" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>44232</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>44232</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>44232</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>44232</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>44234</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>44235</v>
       </c>
+      <c r="C16" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>44235</v>
       </c>
+      <c r="C17" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
         <v>44235</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>44235</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2">
         <v>44236</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>62</v>
+      <c r="C20" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
         <v>44237</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2">
         <v>44237</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2">
         <v>44241</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2">
         <v>44249</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2">
         <v>44250</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
         <v>44250</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2">
         <v>44250</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2">
         <v>44251</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>72</v>
+      <c r="C28" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1112,98 +1154,131 @@
         <v>44251</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2">
         <v>44256</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2">
         <v>44256</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2">
         <v>44256</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2">
         <v>44256</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2">
         <v>44257</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2">
         <v>44259</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2">
         <v>44259</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2">
         <v>44259</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44263</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44263</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44263</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1232,6 +1307,11 @@
     <hyperlink ref="D29" r:id="rId18" xr:uid="{0EA0397C-6514-4687-BC1E-05BAA7461164}"/>
     <hyperlink ref="D33" r:id="rId19" xr:uid="{C67141BB-14EE-4006-8B95-BD85F3545954}"/>
     <hyperlink ref="D35" r:id="rId20" xr:uid="{FB12D36A-4A09-428C-B3C2-A6758CAF5C09}"/>
+    <hyperlink ref="D36" r:id="rId21" xr:uid="{368AFD01-6FBC-43B4-A43A-0076EE2E91AD}"/>
+    <hyperlink ref="D37" r:id="rId22" xr:uid="{4A480575-0ED9-4760-816D-446D44411516}"/>
+    <hyperlink ref="D38" r:id="rId23" xr:uid="{590EEB84-77D2-4D1C-BCED-8447453BC933}"/>
+    <hyperlink ref="D39" r:id="rId24" xr:uid="{A7899894-DC6D-4623-BB2E-6AFEA5C051EE}"/>
+    <hyperlink ref="D40" r:id="rId25" xr:uid="{05C9E299-7B35-4E46-AD6C-2615076DB1CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32939175-580E-4D83-94F3-1668AA587BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325B9D31-F47D-4EA6-B9E0-991253E40E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一面二面，挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,11 +332,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.9笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.6笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.11一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面二面，感谢信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10笔试晚上8点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9笔试完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +405,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,13 +420,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,10 +485,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -807,343 +833,352 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>44204</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>44213</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>44216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>44226</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>44229</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>44229</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>44229</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
+      <c r="C8" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>44230</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>44231</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>67</v>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>44232</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>44232</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>44232</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>44232</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>44234</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>44235</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>77</v>
+      <c r="C16" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
         <v>44235</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>67</v>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>44235</v>
       </c>
+      <c r="C18" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
         <v>44235</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>44236</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>67</v>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
         <v>44237</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>44237</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
         <v>44241</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>61</v>
+      <c r="C23" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2">
         <v>44249</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
         <v>44250</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2">
         <v>44250</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>79</v>
+      <c r="C26" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
         <v>44250</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>66</v>
+      <c r="C27" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2">
         <v>44251</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>66</v>
+      <c r="C28" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1154,131 +1189,131 @@
         <v>44251</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2">
         <v>44256</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2">
         <v>44256</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2">
         <v>44256</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2">
         <v>44256</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2">
         <v>44257</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2">
         <v>44259</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2">
         <v>44259</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>68</v>
+      <c r="C36" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2">
         <v>44259</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2">
         <v>44263</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2">
         <v>44263</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2">
         <v>44263</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325B9D31-F47D-4EA6-B9E0-991253E40E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EAD49E-211E-40BB-B2A0-EB72A7092D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,27 +328,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.10笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.6笔试完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.11一面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一面二面，感谢信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.10笔试晚上8点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.9笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.11一面,hr面，流程结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/futu5/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说看学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +425,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,12 +456,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -460,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,9 +506,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -823,7 +834,7 @@
     <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -850,7 +861,7 @@
         <v>44204</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -897,7 +908,7 @@
         <v>44229</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -922,7 +933,7 @@
         <v>44229</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -985,6 +996,9 @@
       <c r="B13" s="2">
         <v>44232</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1036,7 @@
         <v>44235</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>28</v>
@@ -1036,7 +1050,7 @@
         <v>44235</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>30</v>
@@ -1049,8 +1063,8 @@
       <c r="B18" s="2">
         <v>44235</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>78</v>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>33</v>
@@ -1147,7 +1161,7 @@
         <v>44250</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>46</v>
@@ -1199,6 +1213,9 @@
       <c r="B30" s="2">
         <v>44256</v>
       </c>
+      <c r="C30" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1210,6 +1227,9 @@
       <c r="B31" s="2">
         <v>44256</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1243,8 +1263,8 @@
       <c r="B34" s="2">
         <v>44257</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>31</v>
+      <c r="D34" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1314,6 +1334,17 @@
       </c>
       <c r="D40" s="5" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44267</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1347,6 +1378,8 @@
     <hyperlink ref="D38" r:id="rId23" xr:uid="{590EEB84-77D2-4D1C-BCED-8447453BC933}"/>
     <hyperlink ref="D39" r:id="rId24" xr:uid="{A7899894-DC6D-4623-BB2E-6AFEA5C051EE}"/>
     <hyperlink ref="D40" r:id="rId25" xr:uid="{05C9E299-7B35-4E46-AD6C-2615076DB1CC}"/>
+    <hyperlink ref="D41" r:id="rId26" xr:uid="{B94B57E9-DECD-481A-BA57-54607C1DF3EB}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{148CD5CD-3659-4C19-BF75-00C36C045EE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EAD49E-211E-40BB-B2A0-EB72A7092D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F180A5-601B-49EC-8A1C-8CD26C0FB029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.9笔试完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,6 +365,10 @@
   </si>
   <si>
     <t>未做笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9笔试完无消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>44229</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -932,8 +932,8 @@
       <c r="B8" s="2">
         <v>44229</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>78</v>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -997,7 +997,7 @@
         <v>44232</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>20</v>
@@ -1036,7 +1036,7 @@
         <v>44235</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>28</v>
@@ -1050,7 +1050,7 @@
         <v>44235</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>30</v>
@@ -1064,7 +1064,7 @@
         <v>44235</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>33</v>
@@ -1214,7 +1214,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
@@ -1228,7 +1228,7 @@
         <v>44256</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -1264,7 +1264,7 @@
         <v>44257</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1338,13 +1338,13 @@
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2">
         <v>44267</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F180A5-601B-49EC-8A1C-8CD26C0FB029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E8BA0-DC35-4DDF-AF4E-8F3CC168218F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,26 @@
   </si>
   <si>
     <t>3.9笔试完无消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哔哩哔哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.16一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10笔试，3.15一面，3.17二面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +445,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +476,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -474,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,6 +532,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -985,6 +1014,9 @@
       <c r="B12" s="2">
         <v>44232</v>
       </c>
+      <c r="C12" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1068,7 @@
         <v>44235</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>28</v>
@@ -1345,6 +1377,28 @@
       </c>
       <c r="D41" s="5" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44270</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44270</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1380,6 +1434,7 @@
     <hyperlink ref="D40" r:id="rId25" xr:uid="{05C9E299-7B35-4E46-AD6C-2615076DB1CC}"/>
     <hyperlink ref="D41" r:id="rId26" xr:uid="{B94B57E9-DECD-481A-BA57-54607C1DF3EB}"/>
     <hyperlink ref="D34" r:id="rId27" xr:uid="{148CD5CD-3659-4C19-BF75-00C36C045EE2}"/>
+    <hyperlink ref="D43" r:id="rId28" location="/individualCenter" xr:uid="{FE17DD4F-BC7B-4344-A0D2-966904CDAD64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E8BA0-DC35-4DDF-AF4E-8F3CC168218F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F9F955-4434-48B2-8469-D5B202BA2274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,10 @@
   </si>
   <si>
     <t>3.10笔试，3.15一面，3.17二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.16笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1374,6 +1378,9 @@
       </c>
       <c r="B41" s="2">
         <v>44267</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>82</v>

--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F9F955-4434-48B2-8469-D5B202BA2274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4633C94C-91ED-4709-8523-47D2EE823050}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,11 +384,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.10笔试，3.15一面，3.17二面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.16笔试</t>
+    <t>offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10笔试，3.15一面，3.17二面，3.21hr面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,15 +858,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -894,7 +894,7 @@
         <v>44204</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -941,7 +941,7 @@
         <v>44229</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -966,7 +966,7 @@
         <v>44229</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -1018,8 +1018,8 @@
       <c r="B12" s="2">
         <v>44232</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>90</v>
+      <c r="C12" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>22</v>
@@ -1033,7 +1033,7 @@
         <v>44232</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>20</v>
@@ -1086,7 +1086,7 @@
         <v>44235</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>30</v>
@@ -1100,7 +1100,7 @@
         <v>44235</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>33</v>
@@ -1197,7 +1197,7 @@
         <v>44250</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>46</v>
@@ -1250,7 +1250,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
@@ -1264,7 +1264,7 @@
         <v>44256</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -1300,7 +1300,7 @@
         <v>44257</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,8 +1321,8 @@
       <c r="B36" s="2">
         <v>44259</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>67</v>
+      <c r="C36" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>63</v>
@@ -1341,40 +1341,40 @@
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2">
         <v>44263</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2">
         <v>44263</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2">
         <v>44263</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2">
         <v>44267</v>
@@ -1383,12 +1383,12 @@
         <v>92</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2">
         <v>44270</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2">
         <v>44270</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1444,5 +1444,6 @@
     <hyperlink ref="D43" r:id="rId28" location="/individualCenter" xr:uid="{FE17DD4F-BC7B-4344-A0D2-966904CDAD64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4633C94C-91ED-4709-8523-47D2EE823050}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2381FFD0-AF1C-48B7-8228-B788789364EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.16一面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>offer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +389,38 @@
   </si>
   <si>
     <t>3.25一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.26笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.16一面,3.26二面,流程结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试未做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mokahr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.xiaohongshu.com/record/campus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -954,6 +982,9 @@
       <c r="B7" s="2">
         <v>44229</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1018,8 +1049,8 @@
       <c r="B12" s="2">
         <v>44232</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>89</v>
+      <c r="C12" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>22</v>
@@ -1072,7 +1103,7 @@
         <v>44235</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>28</v>
@@ -1238,6 +1269,9 @@
       <c r="B29" s="2">
         <v>44251</v>
       </c>
+      <c r="C29" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>51</v>
       </c>
@@ -1288,6 +1322,9 @@
       <c r="B33" s="2">
         <v>44256</v>
       </c>
+      <c r="C33" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="D33" s="5" t="s">
         <v>56</v>
       </c>
@@ -1322,7 +1359,7 @@
         <v>44259</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>63</v>
@@ -1380,7 +1417,7 @@
         <v>44267</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>81</v>
@@ -1404,8 +1441,33 @@
       <c r="B43" s="2">
         <v>44270</v>
       </c>
+      <c r="C43" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="D43" s="5" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44281</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44281</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1442,8 +1504,9 @@
     <hyperlink ref="D41" r:id="rId26" xr:uid="{B94B57E9-DECD-481A-BA57-54607C1DF3EB}"/>
     <hyperlink ref="D34" r:id="rId27" xr:uid="{148CD5CD-3659-4C19-BF75-00C36C045EE2}"/>
     <hyperlink ref="D43" r:id="rId28" location="/individualCenter" xr:uid="{FE17DD4F-BC7B-4344-A0D2-966904CDAD64}"/>
+    <hyperlink ref="D45" r:id="rId29" xr:uid="{362E8333-2EE9-42DF-8721-B7F3A443BA71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/春招记录表.xlsx
+++ b/春招记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021年\春招\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2381FFD0-AF1C-48B7-8228-B788789364EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D688E6BB-DD68-4FF0-87D0-31FCFADDAC55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04B29255-FB7B-4352-91CB-91B46668AECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.4笔试完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://jobs.bytedance.com/campus/position/application</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.11一面,hr面，流程结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +413,10 @@
   </si>
   <si>
     <t>https://job.xiaohongshu.com/record/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AEB25F-7E04-41D7-8DAE-90F4E613AF7F}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -905,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -922,7 +918,7 @@
         <v>44204</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -969,7 +965,7 @@
         <v>44229</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -983,7 +979,7 @@
         <v>44229</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -997,7 +993,7 @@
         <v>44229</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -1022,7 +1018,7 @@
         <v>44231</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>15</v>
@@ -1050,7 +1046,7 @@
         <v>44232</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>22</v>
@@ -1064,7 +1060,7 @@
         <v>44232</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>20</v>
@@ -1078,7 +1074,7 @@
         <v>44232</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>26</v>
@@ -1103,7 +1099,7 @@
         <v>44235</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>28</v>
@@ -1117,7 +1113,7 @@
         <v>44235</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>30</v>
@@ -1131,7 +1127,7 @@
         <v>44235</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>33</v>
@@ -1156,7 +1152,7 @@
         <v>44236</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>39</v>
@@ -1192,7 +1188,7 @@
         <v>44241</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>42</v>
@@ -1228,7 +1224,7 @@
         <v>44250</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>46</v>
@@ -1242,7 +1238,7 @@
         <v>44250</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
@@ -1256,7 +1252,7 @@
         <v>44251</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>50</v>
@@ -1270,7 +1266,7 @@
         <v>44251</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>51</v>
@@ -1284,7 +1280,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
@@ -1297,8 +1293,8 @@
       <c r="B31" s="2">
         <v>44256</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
+      <c r="C31" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -1323,7 +1319,7 @@
         <v>44256</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>56</v>
@@ -1337,7 +1333,7 @@
         <v>44257</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1347,8 +1343,11 @@
       <c r="B35" s="2">
         <v>44259</v>
       </c>
+      <c r="C35" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="D35" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,73 +1358,76 @@
         <v>44259</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2">
         <v>44259</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2">
         <v>44263</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2">
         <v>44263</v>
       </c>
+      <c r="C39" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="D39" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2">
         <v>44263</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2">
         <v>44267</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2">
         <v>44270</v>
@@ -1436,38 +1438,38 @@
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2">
         <v>44270</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2">
         <v>44281</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2">
         <v>44281</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
